--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_1</t>
+          <t>model_4_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9907487519665038</v>
+        <v>0.9647363974394064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8319715077001053</v>
+        <v>0.6398389933928517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99194922699621</v>
+        <v>0.9505102923595101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.975278966322414</v>
+        <v>0.8065620404463524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9893704051224658</v>
+        <v>0.8652880713438245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06186313819806966</v>
+        <v>0.2358078726966485</v>
       </c>
       <c r="H2" t="n">
-        <v>1.123607301709461</v>
+        <v>2.408398309570947</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0843337101860438</v>
+        <v>0.06965456687964341</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07786309910195902</v>
+        <v>0.4457830752681047</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08109840755812671</v>
+        <v>0.2577188210738741</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05649361670619</v>
+        <v>0.9988335655732</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2487230150148347</v>
+        <v>0.4856005278998866</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006000809535241</v>
+        <v>1.022873688147412</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2593116686916363</v>
+        <v>0.5062735477042551</v>
       </c>
       <c r="P2" t="n">
-        <v>127.565661564722</v>
+        <v>124.8894758085158</v>
       </c>
       <c r="Q2" t="n">
-        <v>201.9170868816822</v>
+        <v>199.240901125476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_0</t>
+          <t>model_4_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9898381233182866</v>
+        <v>0.9673376195027555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8318906951643873</v>
+        <v>0.6336403876365151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9921949754780273</v>
+        <v>0.9240528921551637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9790037213901367</v>
+        <v>0.791251456516467</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9903079535026679</v>
+        <v>0.8463343099738625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06795251616175711</v>
+        <v>0.2184134887815067</v>
       </c>
       <c r="H3" t="n">
-        <v>1.124147695507915</v>
+        <v>2.449848414805525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08175943797212434</v>
+        <v>0.1068921833428974</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06613134966335957</v>
+        <v>0.4810667352289713</v>
       </c>
       <c r="K3" t="n">
-        <v>0.073945389826116</v>
+        <v>0.293979463200448</v>
       </c>
       <c r="L3" t="n">
-        <v>1.066922044192625</v>
+        <v>1.10308341190133</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2606770342046977</v>
+        <v>0.4673472892630348</v>
       </c>
       <c r="N3" t="n">
-        <v>1.006591487577328</v>
+        <v>1.021186408971186</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2717745952266428</v>
+        <v>0.4872432309092196</v>
       </c>
       <c r="P3" t="n">
-        <v>127.3778922189283</v>
+        <v>125.042730550397</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.7293175358885</v>
+        <v>199.3941558673572</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9913723054570011</v>
+        <v>0.9689233713928262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8318458721791478</v>
+        <v>0.627313398081209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9915238238758447</v>
+        <v>0.8954699839054702</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9714829419279929</v>
+        <v>0.7737206400768954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9882948148402487</v>
+        <v>0.8252614528444143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05769343313591418</v>
+        <v>0.2078095585908883</v>
       </c>
       <c r="H4" t="n">
-        <v>1.124447427016602</v>
+        <v>2.492157023094965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08878990631134033</v>
+        <v>0.1471213580382863</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08981932340354451</v>
+        <v>0.5214669818115218</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08930461485744243</v>
+        <v>0.3342941699249041</v>
       </c>
       <c r="L4" t="n">
-        <v>1.047074718542272</v>
+        <v>1.199484482005284</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2401945734938951</v>
+        <v>0.455861337021345</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005596342406269</v>
+        <v>1.020157813150599</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2504201537588426</v>
+        <v>0.4752682979014022</v>
       </c>
       <c r="P4" t="n">
-        <v>127.7052238448288</v>
+        <v>125.1422664047625</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.0566491617891</v>
+        <v>199.4936917217227</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9917720308667686</v>
+        <v>0.9697560164002362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8315684218291914</v>
+        <v>0.6210303077972852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9909697890656308</v>
+        <v>0.8658928670572421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9676929798099958</v>
+        <v>0.755189266384474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9871321703741047</v>
+        <v>0.8032202450459845</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05502046748023282</v>
+        <v>0.20224165759236</v>
       </c>
       <c r="H5" t="n">
-        <v>1.126302738784302</v>
+        <v>2.534172076754534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09459354915353251</v>
+        <v>0.1887498372076883</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1017564535347103</v>
+        <v>0.5641730399844473</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09817500134412141</v>
+        <v>0.3764614385960678</v>
       </c>
       <c r="L5" t="n">
-        <v>1.038574561905713</v>
+        <v>1.286837117732631</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2345644207466955</v>
+        <v>0.4497128612707891</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005337061059393</v>
+        <v>1.019617719091739</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2445503137531719</v>
+        <v>0.4688580688090457</v>
       </c>
       <c r="P5" t="n">
-        <v>127.8001000539417</v>
+        <v>125.196583943785</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.151525370902</v>
+        <v>199.5480092607452</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9919988144492854</v>
+        <v>0.9700372639611109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8311825804978386</v>
+        <v>0.6149137431736296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9903282225077854</v>
+        <v>0.8361280845870853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9639668780537479</v>
+        <v>0.736534442375971</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9859226238277495</v>
+        <v>0.7810356519129309</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05350396461970036</v>
+        <v>0.2003609538577647</v>
       </c>
       <c r="H6" t="n">
-        <v>1.128882861543694</v>
+        <v>2.57507357255711</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1013141073072557</v>
+        <v>0.2306424474103267</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1134924445978089</v>
+        <v>0.6071635927915834</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1074032268698334</v>
+        <v>0.4189030192733559</v>
       </c>
       <c r="L6" t="n">
-        <v>1.030906071035638</v>
+        <v>1.365054149662678</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2313092402384746</v>
+        <v>0.4476169722628541</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005189958195058</v>
+        <v>1.019435288241441</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2411565534715634</v>
+        <v>0.4666729534669546</v>
       </c>
       <c r="P6" t="n">
-        <v>127.8559990455694</v>
+        <v>125.2152695395691</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.2074243625296</v>
+        <v>199.5666948565293</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9920934113025991</v>
+        <v>0.9699205940270588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8307228518979917</v>
+        <v>0.6090468741630355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9896317950632173</v>
+        <v>0.806749872117453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9603464211143069</v>
+        <v>0.7183438879977057</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9846972166593785</v>
+        <v>0.7592728894930413</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05287139502601319</v>
+        <v>0.201141126243987</v>
       </c>
       <c r="H7" t="n">
-        <v>1.131957068807726</v>
+        <v>2.614305352645399</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1086093459443608</v>
+        <v>0.2719909774953213</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1248956893466588</v>
+        <v>0.6490842235213854</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1167524608820572</v>
+        <v>0.4605375911343212</v>
       </c>
       <c r="L7" t="n">
-        <v>1.023997077632358</v>
+        <v>1.434236393181195</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2299378068652765</v>
+        <v>0.4484875987627607</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00512859807399</v>
+        <v>1.019510966036502</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2397267353404098</v>
+        <v>0.4675806443394075</v>
       </c>
       <c r="P7" t="n">
-        <v>127.8797856462341</v>
+        <v>125.2074969933552</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.2312109631944</v>
+        <v>199.5589223103154</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9920884952283022</v>
+        <v>0.9695220143445522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8302162273853444</v>
+        <v>0.6034832597870498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9889062483324497</v>
+        <v>0.7781618526463757</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9568628799931284</v>
+        <v>0.7009818138730894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9834800716130961</v>
+        <v>0.7382997785277919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05290426883747269</v>
+        <v>0.2038064304161995</v>
       </c>
       <c r="H8" t="n">
-        <v>1.13534486925659</v>
+        <v>2.651509267595705</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1162096158426904</v>
+        <v>0.3122273460079437</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1358676944448924</v>
+        <v>0.689095598817958</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1260386591010866</v>
+        <v>0.5006614724129508</v>
       </c>
       <c r="L8" t="n">
-        <v>1.017770204395639</v>
+        <v>1.495081077076619</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2300092798942527</v>
+        <v>0.4514492556381055</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005131786878939</v>
+        <v>1.019769504208939</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2398012511241991</v>
+        <v>0.4706683850794106</v>
       </c>
       <c r="P8" t="n">
-        <v>127.8785424940262</v>
+        <v>125.1811692122187</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.2299678109865</v>
+        <v>199.5325945291789</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9920100320823875</v>
+        <v>0.9689290273016892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8296837279310392</v>
+        <v>0.5982540287850269</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9881715029332208</v>
+        <v>0.7506444717433124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9535376816931908</v>
+        <v>0.6846533589332039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9822893062349879</v>
+        <v>0.7183430486053108</v>
       </c>
       <c r="G9" t="n">
-        <v>0.053428952255494</v>
+        <v>0.2077717375022788</v>
       </c>
       <c r="H9" t="n">
-        <v>1.138905695559464</v>
+        <v>2.686477159384627</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1239062439217492</v>
+        <v>0.3509568382568914</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1463409719032073</v>
+        <v>0.7267249703967049</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1351235938565989</v>
+        <v>0.5388409043267982</v>
       </c>
       <c r="L9" t="n">
-        <v>1.012156812882104</v>
+        <v>1.548446729988347</v>
       </c>
       <c r="M9" t="n">
-        <v>0.231147036008455</v>
+        <v>0.4558198520273978</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005182681892505</v>
+        <v>1.020154144452958</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2409874438716628</v>
+        <v>0.4752250468053768</v>
       </c>
       <c r="P9" t="n">
-        <v>127.8588050057434</v>
+        <v>125.1426304354739</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.2102303227036</v>
+        <v>199.4940557524341</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9918785812577382</v>
+        <v>0.9682076436214538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8291414426617141</v>
+        <v>0.5933739702937513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9874427423045455</v>
+        <v>0.724390691991911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9503845163445694</v>
+        <v>0.6694542474084991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9811381660252315</v>
+        <v>0.6995313296724603</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05430796452519944</v>
+        <v>0.2125956334936789</v>
       </c>
       <c r="H10" t="n">
-        <v>1.142531959652434</v>
+        <v>2.71911013298639</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1315401801443656</v>
+        <v>0.3879078679704168</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1562724023290785</v>
+        <v>0.7617517391470582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1439062087128503</v>
+        <v>0.5748298035587375</v>
       </c>
       <c r="L10" t="n">
-        <v>1.00709178265365</v>
+        <v>1.595196031746178</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2330406928525562</v>
+        <v>0.4610809402845437</v>
       </c>
       <c r="N10" t="n">
-        <v>1.005267947292278</v>
+        <v>1.0206220690023</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2429617176080274</v>
+        <v>0.4807101104815835</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8261687729186</v>
+        <v>125.0967267037701</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.1775940898789</v>
+        <v>199.4481520207303</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9917103906406529</v>
+        <v>0.967407716025832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8286016280706934</v>
+        <v>0.5888455691811971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9867312812073336</v>
+        <v>0.699527387582074</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9474121101368755</v>
+        <v>0.6554136262948456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.980036192763998</v>
+        <v>0.6819288469336837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05543265595609503</v>
+        <v>0.2179447530089303</v>
       </c>
       <c r="H11" t="n">
-        <v>1.146141702308207</v>
+        <v>2.74939157207741</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1389928997717446</v>
+        <v>0.422901865357603</v>
       </c>
       <c r="J11" t="n">
-        <v>0.165634501104535</v>
+        <v>0.7941087350188165</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1523137047357281</v>
+        <v>0.6085053001882098</v>
       </c>
       <c r="L11" t="n">
-        <v>1.002523093889401</v>
+        <v>1.636138535542188</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2354414066303865</v>
+        <v>0.4668455344211084</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005377043908766</v>
+        <v>1.021140940956217</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2454646347415426</v>
+        <v>0.4867201153248967</v>
       </c>
       <c r="P11" t="n">
-        <v>127.7851728023992</v>
+        <v>125.047027349751</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.1365981193594</v>
+        <v>199.3984526667113</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9915181042685283</v>
+        <v>0.9665661720334968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8280733220755913</v>
+        <v>0.5846629228691707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9860450861412382</v>
+        <v>0.6761244609720345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9446244140391545</v>
+        <v>0.642510647817034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9789897026842086</v>
+        <v>0.6655487570611385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05671847581188981</v>
+        <v>0.2235721615606286</v>
       </c>
       <c r="H12" t="n">
-        <v>1.149674486930081</v>
+        <v>2.777360947225246</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1461809518765476</v>
+        <v>0.4558404458111417</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1744148239807502</v>
+        <v>0.8238440022808855</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1602978922775952</v>
+        <v>0.6398422240460137</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9984033659637143</v>
+        <v>1.672026591744001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2381564103942823</v>
+        <v>0.4728341797719668</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005501770204198</v>
+        <v>1.021686807329624</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2482952218365</v>
+        <v>0.4929637097065461</v>
       </c>
       <c r="P12" t="n">
-        <v>127.7393105385303</v>
+        <v>124.9960420930453</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.0907358554905</v>
+        <v>199.3474674100055</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9913115419973123</v>
+        <v>0.965710739115532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8275629818443484</v>
+        <v>0.5808143563775849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9853900444623953</v>
+        <v>0.654213759785695</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9420209492246677</v>
+        <v>0.6307027416086588</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9780026277995001</v>
+        <v>0.6503771201740562</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05809975867064313</v>
+        <v>0.2292924454219661</v>
       </c>
       <c r="H13" t="n">
-        <v>1.153087134406303</v>
+        <v>2.803096329075498</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1530426650408999</v>
+        <v>0.4866787852139619</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1826148791039567</v>
+        <v>0.8510556455084758</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1678287720724282</v>
+        <v>0.6688672436660594</v>
       </c>
       <c r="L13" t="n">
-        <v>0.994684259440655</v>
+        <v>1.703518468188206</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2410389152619201</v>
+        <v>0.478844907482544</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005635756542284</v>
+        <v>1.022241682735871</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2513004409039609</v>
+        <v>0.4992303265396842</v>
       </c>
       <c r="P13" t="n">
-        <v>127.6911875376447</v>
+        <v>124.9455140718474</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.0426128546049</v>
+        <v>199.2969393888077</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9910981466482021</v>
+        <v>0.9648614764274918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8270751266798642</v>
+        <v>0.5772843290668399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9847695181221343</v>
+        <v>0.6337929360925594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9395989114904597</v>
+        <v>0.6199294557682624</v>
       </c>
       <c r="F14" t="n">
-        <v>0.977076696102123</v>
+        <v>0.6363767068932211</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0595267343527383</v>
+        <v>0.2349714689273862</v>
       </c>
       <c r="H14" t="n">
-        <v>1.156349424137575</v>
+        <v>2.826701637956731</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1595428220466604</v>
+        <v>0.5154201881740228</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1902434987881859</v>
+        <v>0.8758829777640265</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1748931604174231</v>
+        <v>0.6956515829690246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9913364452796535</v>
+        <v>1.73119406198144</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2439810122791081</v>
+        <v>0.484738557293915</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005774175147112</v>
+        <v>1.022792555830816</v>
       </c>
       <c r="O14" t="n">
-        <v>0.254367789082151</v>
+        <v>0.5053748812250622</v>
       </c>
       <c r="P14" t="n">
-        <v>127.6426595009808</v>
+        <v>124.8965823620565</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.994084817941</v>
+        <v>199.2480076790168</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9908837419148195</v>
+        <v>0.9640330199021262</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8266127545543406</v>
+        <v>0.5740549652799473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9841858988377785</v>
+        <v>0.6148395225258045</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9373542191630421</v>
+        <v>0.6101223189564784</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9762127075513565</v>
+        <v>0.6234979763283479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06096045979211041</v>
+        <v>0.2405113615271973</v>
       </c>
       <c r="H15" t="n">
-        <v>1.159441308669979</v>
+        <v>2.848296408469536</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1656563691014187</v>
+        <v>0.542096276512903</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1973135389581322</v>
+        <v>0.8984837931242591</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1814849540297754</v>
+        <v>0.7202900191581352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.988311621412762</v>
+        <v>1.755548971311553</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2469017209176769</v>
+        <v>0.4904195770227747</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005913248487685</v>
+        <v>1.023329933036459</v>
       </c>
       <c r="O15" t="n">
-        <v>0.257412838334164</v>
+        <v>0.5112977537251115</v>
       </c>
       <c r="P15" t="n">
-        <v>127.5950596502214</v>
+        <v>124.8499758985497</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.9464849671816</v>
+        <v>199.2014012155099</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9906724428442597</v>
+        <v>0.9632354981725548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8261775324494707</v>
+        <v>0.5711071327583659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9836399859875669</v>
+        <v>0.5973080553548654</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9352796087574891</v>
+        <v>0.6012125653871837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9754097062757743</v>
+        <v>0.6116827775886611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06237341764988719</v>
+        <v>0.2458443930050913</v>
       </c>
       <c r="H16" t="n">
-        <v>1.162351640889258</v>
+        <v>2.868008578114872</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1713749325331432</v>
+        <v>0.5667710384134436</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2038478771946432</v>
+        <v>0.9190165642265081</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1876114457227459</v>
+        <v>0.742893801319976</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9855839129860626</v>
+        <v>1.777016784134708</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2497467069850715</v>
+        <v>0.4958269788999901</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006050307344264</v>
+        <v>1.023847244428613</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2603789413483807</v>
+        <v>0.5169353598951051</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5492321871414</v>
+        <v>124.8061129839059</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.9006575041017</v>
+        <v>199.1575383008661</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9904672780908795</v>
+        <v>0.9624756302528121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8257702641016434</v>
+        <v>0.5684213734266088</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9831317315662911</v>
+        <v>0.581142080938286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9333672444223285</v>
+        <v>0.5931283890562276</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9746660502585172</v>
+        <v>0.6008671204028462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06374535530043696</v>
+        <v>0.2509256332832806</v>
       </c>
       <c r="H17" t="n">
-        <v>1.165075046206477</v>
+        <v>2.885968263133115</v>
       </c>
       <c r="I17" t="n">
-        <v>0.176699015207499</v>
+        <v>0.5895239298702719</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2098711938443295</v>
+        <v>0.9376467699738127</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1932851632505921</v>
+        <v>0.7635853499220424</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9831257167291081</v>
+        <v>1.795972585865742</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2524784254157906</v>
+        <v>0.5009247780688041</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006183387184294</v>
+        <v>1.024340131727906</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2632269546881322</v>
+        <v>0.5222501829284345</v>
       </c>
       <c r="P17" t="n">
-        <v>127.5057179112605</v>
+        <v>124.7651973309808</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.8571432282207</v>
+        <v>199.116622647941</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9902704604368578</v>
+        <v>0.9617577879507266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.825391009065978</v>
+        <v>0.5659781307915758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9826605733673018</v>
+        <v>0.5662766305294727</v>
       </c>
       <c r="E18" t="n">
-        <v>0.931609185944921</v>
+        <v>0.5858036833891536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9739797318135333</v>
+        <v>0.5909872822770255</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06506147585914161</v>
+        <v>0.2557258480626861</v>
       </c>
       <c r="H18" t="n">
-        <v>1.167611126376281</v>
+        <v>2.902306237883679</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1816345063692329</v>
+        <v>0.6104463915105496</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2154084979570428</v>
+        <v>0.9545267547773975</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1985214242376971</v>
+        <v>0.7824865731439735</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9809051216807237</v>
+        <v>1.812732818247169</v>
       </c>
       <c r="M18" t="n">
-        <v>0.255071511265256</v>
+        <v>0.5056934328846737</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006311052689606</v>
+        <v>1.024805759167096</v>
       </c>
       <c r="O18" t="n">
-        <v>0.265930433570637</v>
+        <v>0.5272218492522921</v>
       </c>
       <c r="P18" t="n">
-        <v>127.4648453472172</v>
+        <v>124.7272986286745</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.8162706641774</v>
+        <v>199.0787239456347</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9900833940885783</v>
+        <v>0.9610840021492982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8250393312681111</v>
+        <v>0.5637586249521285</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9822253249277664</v>
+        <v>0.5526376444725184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9299965008424994</v>
+        <v>0.5791710847627909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9733480529583803</v>
+        <v>0.5819754477408084</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06631238939144855</v>
+        <v>0.2602314568193361</v>
       </c>
       <c r="H19" t="n">
-        <v>1.169962797429944</v>
+        <v>2.917148083651948</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1861938344910712</v>
+        <v>0.6296426590127927</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2204879239061265</v>
+        <v>0.9698117599516736</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2033408129191336</v>
+        <v>0.7997272094822331</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9789047307112539</v>
+        <v>1.827572739163108</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2575119208725075</v>
+        <v>0.5101288629545834</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006432393023625</v>
+        <v>1.025242809416671</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2684747364672135</v>
+        <v>0.5318461047628837</v>
       </c>
       <c r="P19" t="n">
-        <v>127.4267570611976</v>
+        <v>124.6923676508804</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.7781823781578</v>
+        <v>199.0437929678407</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9899069078330111</v>
+        <v>0.9604553165133745</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8247143848284978</v>
+        <v>0.561744556646271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9818244224752193</v>
+        <v>0.5401512304736661</v>
       </c>
       <c r="E20" t="n">
-        <v>0.928519651141407</v>
+        <v>0.5731724729197423</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9727679836732385</v>
+        <v>0.5737694301526235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06749255379507138</v>
+        <v>0.2644354805615897</v>
       </c>
       <c r="H20" t="n">
-        <v>1.172135715767879</v>
+        <v>2.930616167687149</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1903933804514482</v>
+        <v>0.6472167325007193</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2251395131614382</v>
+        <v>0.9836357252214907</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2077664468064432</v>
+        <v>0.8154262288611051</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9771022303674797</v>
+        <v>1.840728801889832</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2597932905120365</v>
+        <v>0.5142329049774914</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006546870594804</v>
+        <v>1.025650605504838</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2708532287353834</v>
+        <v>0.5361248643512451</v>
       </c>
       <c r="P20" t="n">
-        <v>127.3914760026716</v>
+        <v>124.6603159745267</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7429013196318</v>
+        <v>199.011741291487</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9897414718967266</v>
+        <v>0.9598712760564048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244150626571474</v>
+        <v>0.5599188567348394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9814560955260265</v>
+        <v>0.5287409178489124</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9271699375040401</v>
+        <v>0.5677481123512309</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9722365281416566</v>
+        <v>0.5663051378807451</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06859882466276783</v>
+        <v>0.2683409617866046</v>
       </c>
       <c r="H21" t="n">
-        <v>1.174137284505951</v>
+        <v>2.942824631401467</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1942516904761271</v>
+        <v>0.6632762410678764</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2293906657659852</v>
+        <v>0.9961363127027363</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2118211824568432</v>
+        <v>0.8297062456617638</v>
       </c>
       <c r="L21" t="n">
-        <v>0.975474841944773</v>
+        <v>1.852415358766048</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2619137733353629</v>
+        <v>0.5180163721221605</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006654180391312</v>
+        <v>1.026029442558008</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2730639849025034</v>
+        <v>0.5400694015251194</v>
       </c>
       <c r="P21" t="n">
-        <v>127.3589597551858</v>
+        <v>124.6309937232348</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.710385072146</v>
+        <v>198.982419040195</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9895872064980032</v>
+        <v>0.9593310807952029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8241400852165166</v>
+        <v>0.5582651316271576</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9811185640884617</v>
+        <v>0.5183316650888277</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9259380463877939</v>
+        <v>0.5628491988838239</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9717505349771181</v>
+        <v>0.5595255145922531</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06963039809435784</v>
+        <v>0.2719532499856323</v>
       </c>
       <c r="H22" t="n">
-        <v>1.175976059917604</v>
+        <v>2.953883098811239</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1977874103903348</v>
+        <v>0.6779268023080328</v>
       </c>
       <c r="J22" t="n">
-        <v>0.233270716305865</v>
+        <v>1.007425992949634</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2155290633480999</v>
+        <v>0.8426764149605389</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9740088926553659</v>
+        <v>1.862797877037133</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2638757247159311</v>
+        <v>0.5214913709598964</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006754244433728</v>
+        <v>1.026379839484193</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2751094606151416</v>
+        <v>0.5436923382576171</v>
       </c>
       <c r="P22" t="n">
-        <v>127.3291081055237</v>
+        <v>124.6042502050223</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.6805334224839</v>
+        <v>198.9556755219826</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9894440171824107</v>
+        <v>0.9588330164915525</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8238880487005737</v>
+        <v>0.556768607565993</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9808099064611947</v>
+        <v>0.508850458479386</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9248154947384388</v>
+        <v>0.5584244317270539</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9713069330578358</v>
+        <v>0.5533728803221898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07058790570705104</v>
+        <v>0.2752838082775176</v>
       </c>
       <c r="H23" t="n">
-        <v>1.177661429260235</v>
+        <v>2.963890362099106</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2010206704601929</v>
+        <v>0.6912711797829314</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2368063836028215</v>
+        <v>1.017622990038735</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2189135205788791</v>
+        <v>0.8544470849108332</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9726858423752606</v>
+        <v>1.87203897899187</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2656838454009785</v>
+        <v>0.5246749548792258</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006847123989788</v>
+        <v>1.026702908221696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2769945567410773</v>
+        <v>0.5470114539353195</v>
       </c>
       <c r="P23" t="n">
-        <v>127.3017929128466</v>
+        <v>124.5799053667849</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.6532182298068</v>
+        <v>198.9313306837451</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.989311545138774</v>
+        <v>0.9583750672873237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8236575064492293</v>
+        <v>0.5554149260007759</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9805279916360219</v>
+        <v>0.5002237312758722</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9237934437087588</v>
+        <v>0.5544298471282156</v>
       </c>
       <c r="F24" t="n">
-        <v>0.970902433023165</v>
+        <v>0.5477936511231905</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07147374687282788</v>
+        <v>0.2783461167148582</v>
       </c>
       <c r="H24" t="n">
-        <v>1.179203066356524</v>
+        <v>2.972942436958844</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2039737934897561</v>
+        <v>0.7034129154204638</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2400255071091087</v>
+        <v>1.026828619642137</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2219996502994324</v>
+        <v>0.8651207675313006</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9714938307874789</v>
+        <v>1.880271229907041</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2673457440709088</v>
+        <v>0.5275851748437007</v>
       </c>
       <c r="N24" t="n">
-        <v>1.006933051801876</v>
+        <v>1.026999956354169</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2787272058779911</v>
+        <v>0.5500455679886679</v>
       </c>
       <c r="P24" t="n">
-        <v>127.2768501466236</v>
+        <v>124.5577798310744</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.6282754635839</v>
+        <v>198.9092051480347</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9891894642220251</v>
+        <v>0.957955192471043</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8234470306276832</v>
+        <v>0.5541912344353594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9802710020336882</v>
+        <v>0.4923856801242711</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9228647209418331</v>
+        <v>0.5508258664541019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9705343017913133</v>
+        <v>0.5427397924804047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07229010252525814</v>
+        <v>0.2811538215446727</v>
       </c>
       <c r="H25" t="n">
-        <v>1.180610519144355</v>
+        <v>2.981125268091366</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2066658190423122</v>
+        <v>0.7144446245206928</v>
       </c>
       <c r="J25" t="n">
-        <v>0.242950677382427</v>
+        <v>1.035134091803963</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2248083045350412</v>
+        <v>0.8747893581623281</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9704220766659504</v>
+        <v>1.887610272668508</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2688681880127475</v>
+        <v>0.530239400219064</v>
       </c>
       <c r="N25" t="n">
-        <v>1.007012239423551</v>
+        <v>1.027272307586351</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2803144634103273</v>
+        <v>0.5528127892332645</v>
       </c>
       <c r="P25" t="n">
-        <v>127.2541361074428</v>
+        <v>124.537706703578</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.6055614244031</v>
+        <v>198.8891320205383</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9890772653943629</v>
+        <v>0.9575709428459859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8232551488095597</v>
+        <v>0.5530856312029619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9800371177173467</v>
+        <v>0.485269563652597</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9220213487619862</v>
+        <v>0.5475744791320563</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9701996640211487</v>
+        <v>0.5381638602150532</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07304037660246319</v>
+        <v>0.2837233005567366</v>
       </c>
       <c r="H26" t="n">
-        <v>1.181893633745681</v>
+        <v>2.988518441997242</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2091158113774739</v>
+        <v>0.7244602426023407</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2456070214688316</v>
+        <v>1.042627002929855</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2273614206774548</v>
+        <v>0.8835436227660975</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9694540170018294</v>
+        <v>1.894165190872192</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2702598316481071</v>
+        <v>0.5326568318877892</v>
       </c>
       <c r="N26" t="n">
-        <v>1.007085017041494</v>
+        <v>1.027521550586387</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2817653521963436</v>
+        <v>0.5553331359729008</v>
       </c>
       <c r="P26" t="n">
-        <v>127.2334857731923</v>
+        <v>124.5195116191359</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.5849110901525</v>
+        <v>198.8709369360962</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_7.xlsx
@@ -518,991 +518,991 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_0</t>
+          <t>model_4_7_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9647363974394064</v>
+        <v>0.9916686670959014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6398389933928517</v>
+        <v>0.8193424423980237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9505102923595101</v>
+        <v>0.9863854068696014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8065620404463524</v>
+        <v>0.9322350276080767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8652880713438245</v>
+        <v>0.9727759041409227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2358078726966485</v>
+        <v>0.05571166149196765</v>
       </c>
       <c r="H2" t="n">
-        <v>2.408398309570947</v>
+        <v>1.20805791953598</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06965456687964341</v>
+        <v>0.03979881456369778</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4457830752681047</v>
+        <v>0.1266376203807371</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2577188210738741</v>
+        <v>0.08321821747221742</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9988335655732</v>
+        <v>0.4367877319687515</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4856005278998866</v>
+        <v>0.236033178794778</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022873688147412</v>
+        <v>1.005404107829686</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5062735477042551</v>
+        <v>0.2460815998721095</v>
       </c>
       <c r="P2" t="n">
-        <v>124.8894758085158</v>
+        <v>127.7751315828986</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.240901125476</v>
+        <v>202.1265568998588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_1</t>
+          <t>model_4_7_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9673376195027555</v>
+        <v>0.9918300005189943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6336403876365151</v>
+        <v>0.8193023954222723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9240528921551637</v>
+        <v>0.985765126905344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.791251456516467</v>
+        <v>0.9182695285650667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8463343099738625</v>
+        <v>0.9682103855768902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2184134887815067</v>
+        <v>0.05463282414887381</v>
       </c>
       <c r="H3" t="n">
-        <v>2.449848414805525</v>
+        <v>1.208325713847228</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1068921833428974</v>
+        <v>0.04161204592791221</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4810667352289713</v>
+        <v>0.1527360234909408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.293979463200448</v>
+        <v>0.09717402774785704</v>
       </c>
       <c r="L3" t="n">
-        <v>1.10308341190133</v>
+        <v>0.4181399222317982</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4673472892630348</v>
+        <v>0.2337366555525124</v>
       </c>
       <c r="N3" t="n">
-        <v>1.021186408971186</v>
+        <v>1.005299459122815</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4872432309092196</v>
+        <v>0.2436873088809621</v>
       </c>
       <c r="P3" t="n">
-        <v>125.042730550397</v>
+        <v>127.8142408039534</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.3941558673572</v>
+        <v>202.1656661209137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_2</t>
+          <t>model_4_7_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9689233713928262</v>
+        <v>0.9912608931745679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.627313398081209</v>
+        <v>0.8191549853968285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8954699839054702</v>
+        <v>0.9864668221623611</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7737206400768954</v>
+        <v>0.9459113225508311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8252614528444143</v>
+        <v>0.976995360064821</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2078095585908883</v>
+        <v>0.05843844758155114</v>
       </c>
       <c r="H4" t="n">
-        <v>2.492157023094965</v>
+        <v>1.209311445366131</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1471213580382863</v>
+        <v>0.03956081757707031</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5214669818115218</v>
+        <v>0.1010796752352899</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3342941699249041</v>
+        <v>0.07032024640618008</v>
       </c>
       <c r="L4" t="n">
-        <v>1.199484482005284</v>
+        <v>0.4576072417539176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.455861337021345</v>
+        <v>0.2417404549957477</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020157813150599</v>
+        <v>1.005668609832713</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4752682979014022</v>
+        <v>0.252031846636645</v>
       </c>
       <c r="P4" t="n">
-        <v>125.1422664047625</v>
+        <v>127.6795625135309</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.4936917217227</v>
+        <v>202.0309878304911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_3</t>
+          <t>model_4_7_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9697560164002362</v>
+        <v>0.9918065787398249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6210303077972852</v>
+        <v>0.819096090256656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8658928670572421</v>
+        <v>0.984758739581855</v>
       </c>
       <c r="E5" t="n">
-        <v>0.755189266384474</v>
+        <v>0.9043166565958085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8032202450459845</v>
+        <v>0.9634641194428913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.20224165759236</v>
+        <v>0.05478944569402629</v>
       </c>
       <c r="H5" t="n">
-        <v>2.534172076754534</v>
+        <v>1.209705277439653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1887498372076883</v>
+        <v>0.04455396435934603</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5641730399844473</v>
+        <v>0.1788108294164067</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3764614385960678</v>
+        <v>0.1116823445479701</v>
       </c>
       <c r="L5" t="n">
-        <v>1.286837117732631</v>
+        <v>0.4013879735258185</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4497128612707891</v>
+        <v>0.2340714542485399</v>
       </c>
       <c r="N5" t="n">
-        <v>1.019617719091739</v>
+        <v>1.005314651628222</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4688580688090457</v>
+        <v>0.2440363606506084</v>
       </c>
       <c r="P5" t="n">
-        <v>125.196583943785</v>
+        <v>127.8085154008033</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.5480092607452</v>
+        <v>202.1599407177636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_4</t>
+          <t>model_4_7_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9700372639611109</v>
+        <v>0.9916477451491383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6149137431736296</v>
+        <v>0.8187717869329763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8361280845870853</v>
+        <v>0.9834871740661589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.736534442375971</v>
+        <v>0.8906132201577651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7810356519129309</v>
+        <v>0.9586672711940226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2003609538577647</v>
+        <v>0.05585156664630921</v>
       </c>
       <c r="H6" t="n">
-        <v>2.57507357255711</v>
+        <v>1.211873895258379</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2306424474103267</v>
+        <v>0.04827106406846518</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6071635927915834</v>
+        <v>0.2044194959634226</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4189030192733559</v>
+        <v>0.1263452800159439</v>
       </c>
       <c r="L6" t="n">
-        <v>1.365054149662678</v>
+        <v>0.3863040761376315</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4476169722628541</v>
+        <v>0.2363293605253254</v>
       </c>
       <c r="N6" t="n">
-        <v>1.019435288241441</v>
+        <v>1.00541767882218</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4666729534669546</v>
+        <v>0.2463903906721069</v>
       </c>
       <c r="P6" t="n">
-        <v>125.2152695395691</v>
+        <v>127.7701154057938</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.5666948565293</v>
+        <v>202.121540722754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_5</t>
+          <t>model_4_7_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9699205940270588</v>
+        <v>0.9905301431207472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6090468741630355</v>
+        <v>0.8186627827443511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.806749872117453</v>
+        <v>0.9858166890730309</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7183438879977057</v>
+        <v>0.9589261872600682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7592728894930413</v>
+        <v>0.9806628226938062</v>
       </c>
       <c r="G7" t="n">
-        <v>0.201141126243987</v>
+        <v>0.0633249765562455</v>
       </c>
       <c r="H7" t="n">
-        <v>2.614305352645399</v>
+        <v>1.212602806769633</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2719909774953213</v>
+        <v>0.04146131699090923</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6490842235213854</v>
+        <v>0.07675779568337762</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4605375911343212</v>
+        <v>0.05910960035901842</v>
       </c>
       <c r="L7" t="n">
-        <v>1.434236393181195</v>
+        <v>0.4809620454863275</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4484875987627607</v>
+        <v>0.2516445440621463</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019510966036502</v>
+        <v>1.006142609867623</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4675806443394075</v>
+        <v>0.2623575732788909</v>
       </c>
       <c r="P7" t="n">
-        <v>125.2074969933552</v>
+        <v>127.5189509066154</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.5589223103154</v>
+        <v>201.8703762235757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_6</t>
+          <t>model_4_7_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9695220143445522</v>
+        <v>0.9913923841028889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6034832597870498</v>
+        <v>0.818367208745123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7781618526463757</v>
+        <v>0.9820444260051534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7009818138730894</v>
+        <v>0.8773353096233149</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7382997785277919</v>
+        <v>0.9539186675886021</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2038064304161995</v>
+        <v>0.05755916713840852</v>
       </c>
       <c r="H8" t="n">
-        <v>2.651509267595705</v>
+        <v>1.214579311463464</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3122273460079437</v>
+        <v>0.05248857258980965</v>
       </c>
       <c r="J8" t="n">
-        <v>0.689095598817958</v>
+        <v>0.2292329494978848</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5006614724129508</v>
+        <v>0.1408607419644616</v>
       </c>
       <c r="L8" t="n">
-        <v>1.495081077076619</v>
+        <v>0.3726986294630483</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4514492556381055</v>
+        <v>0.239914916456665</v>
       </c>
       <c r="N8" t="n">
-        <v>1.019769504208939</v>
+        <v>1.005583318419748</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4706683850794106</v>
+        <v>0.2501285911425677</v>
       </c>
       <c r="P8" t="n">
-        <v>125.1811692122187</v>
+        <v>127.709883733037</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.5325945291789</v>
+        <v>202.0613090499973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_7</t>
+          <t>model_4_7_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9689290273016892</v>
+        <v>0.9910712036979766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5982540287850269</v>
+        <v>0.8179116005440397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7506444717433124</v>
+        <v>0.9805030802977365</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6846533589332039</v>
+        <v>0.8646121223634524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7183430486053108</v>
+        <v>0.9492924861361789</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2077717375022788</v>
+        <v>0.05970690198495653</v>
       </c>
       <c r="H9" t="n">
-        <v>2.686477159384627</v>
+        <v>1.217625965601992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3509568382568914</v>
+        <v>0.05699430635654779</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7267249703967049</v>
+        <v>0.2530097489471461</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5388409043267982</v>
+        <v>0.1550019856688078</v>
       </c>
       <c r="L9" t="n">
-        <v>1.548446729988347</v>
+        <v>0.3604101759361296</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4558198520273978</v>
+        <v>0.2443499580211884</v>
       </c>
       <c r="N9" t="n">
-        <v>1.020154144452958</v>
+        <v>1.005791651655366</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4752250468053768</v>
+        <v>0.2547524416082946</v>
       </c>
       <c r="P9" t="n">
-        <v>125.1426304354739</v>
+        <v>127.6366153082555</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.4940557524341</v>
+        <v>201.9880406252157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_8</t>
+          <t>model_4_7_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9682076436214538</v>
+        <v>0.9893822745341024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5933739702937513</v>
+        <v>0.8177694573095893</v>
       </c>
       <c r="D10" t="n">
-        <v>0.724390691991911</v>
+        <v>0.9841950701050339</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6694542474084991</v>
+        <v>0.9708373227775676</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6995313296724603</v>
+        <v>0.9835284068870425</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2125956334936789</v>
+        <v>0.07100077908058751</v>
       </c>
       <c r="H10" t="n">
-        <v>2.71911013298639</v>
+        <v>1.218576478065271</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3879078679704168</v>
+        <v>0.04620170930246391</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7617517391470582</v>
+        <v>0.05449853983590675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5748298035587375</v>
+        <v>0.05035012456918533</v>
       </c>
       <c r="L10" t="n">
-        <v>1.595196031746178</v>
+        <v>0.5072732487095</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4610809402845437</v>
+        <v>0.2664597138041462</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0206220690023</v>
+        <v>1.006887173275177</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4807101104815835</v>
+        <v>0.2778034554684369</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0967267037701</v>
+        <v>127.29012885807</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.4481520207303</v>
+        <v>201.6415541750303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_9</t>
+          <t>model_4_7_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.967407716025832</v>
+        <v>0.990707767419356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5888455691811971</v>
+        <v>0.8174272612188654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.699527387582074</v>
+        <v>0.9789182337839124</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6554136262948456</v>
+        <v>0.8525279251969207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6819288469336837</v>
+        <v>0.9448408430988349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2179447530089303</v>
+        <v>0.06213720205356373</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74939157207741</v>
+        <v>1.220864744899609</v>
       </c>
       <c r="I11" t="n">
-        <v>0.422901865357603</v>
+        <v>0.0616272037124575</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7941087350188165</v>
+        <v>0.2755924184202561</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6085053001882098</v>
+        <v>0.1686097029023946</v>
       </c>
       <c r="L11" t="n">
-        <v>1.636138535542188</v>
+        <v>0.3493048703760024</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4668455344211084</v>
+        <v>0.2492733480610467</v>
       </c>
       <c r="N11" t="n">
-        <v>1.021140940956217</v>
+        <v>1.006027394106364</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4867201153248967</v>
+        <v>0.259885430554972</v>
       </c>
       <c r="P11" t="n">
-        <v>125.047027349751</v>
+        <v>127.5568208050531</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3984526667113</v>
+        <v>201.9082461220134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_10</t>
+          <t>model_4_7_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9665661720334968</v>
+        <v>0.9903204210486061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5846629228691707</v>
+        <v>0.81693113368792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6761244609720345</v>
+        <v>0.977331752489474</v>
       </c>
       <c r="E12" t="n">
-        <v>0.642510647817034</v>
+        <v>0.8411376741203839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6655487570611385</v>
+        <v>0.9406004845927152</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2235721615606286</v>
+        <v>0.06472738901833418</v>
       </c>
       <c r="H12" t="n">
-        <v>2.777360947225246</v>
+        <v>1.224182351983498</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4558404458111417</v>
+        <v>0.06626487993541773</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8238440022808855</v>
+        <v>0.2968782574157969</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6398422240460137</v>
+        <v>0.1815715686756073</v>
       </c>
       <c r="L12" t="n">
-        <v>1.672026591744001</v>
+        <v>0.3392570310152304</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4728341797719668</v>
+        <v>0.254415779813938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.021686807329624</v>
+        <v>1.00627864580631</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4929637097065461</v>
+        <v>0.2652467862738851</v>
       </c>
       <c r="P12" t="n">
-        <v>124.9960420930453</v>
+        <v>127.4751416874772</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.3474674100055</v>
+        <v>201.8265670044374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_11</t>
+          <t>model_4_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.965710739115532</v>
+        <v>0.9899228920636607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5808143563775849</v>
+        <v>0.8164358732174015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.654213759785695</v>
+        <v>0.9757735031499071</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6307027416086588</v>
+        <v>0.8304680332916601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6503771201740562</v>
+        <v>0.9365939737104151</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2292924454219661</v>
+        <v>0.06738566717111645</v>
       </c>
       <c r="H13" t="n">
-        <v>2.803096329075498</v>
+        <v>1.227494161030321</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4866787852139619</v>
+        <v>0.07082002718920961</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8510556455084758</v>
+        <v>0.3168174365694768</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6688672436660594</v>
+        <v>0.1938186124574811</v>
       </c>
       <c r="L13" t="n">
-        <v>1.703518468188206</v>
+        <v>0.33017047258074</v>
       </c>
       <c r="M13" t="n">
-        <v>0.478844907482544</v>
+        <v>0.2595874942502363</v>
       </c>
       <c r="N13" t="n">
-        <v>1.022241682735871</v>
+        <v>1.006536502445193</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4992303265396842</v>
+        <v>0.2706386713006614</v>
       </c>
       <c r="P13" t="n">
-        <v>124.9455140718474</v>
+        <v>127.3946458738506</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.2969393888077</v>
+        <v>201.7460711908109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_12</t>
+          <t>model_4_7_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9648614764274918</v>
+        <v>0.9877029064248765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5772843290668399</v>
+        <v>0.8163552446370844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6337929360925594</v>
+        <v>0.9813062049055644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6199294557682624</v>
+        <v>0.9811438077756143</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6363767068932211</v>
+        <v>0.98529752950461</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2349714689273862</v>
+        <v>0.08223072135976089</v>
       </c>
       <c r="H14" t="n">
-        <v>2.826701637956731</v>
+        <v>1.228033324718161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5154201881740228</v>
+        <v>0.05464657498974573</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8758829777640265</v>
+        <v>0.03523801793834383</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6956515829690246</v>
+        <v>0.04494229646404477</v>
       </c>
       <c r="L14" t="n">
-        <v>1.73119406198144</v>
+        <v>0.5375159824318061</v>
       </c>
       <c r="M14" t="n">
-        <v>0.484738557293915</v>
+        <v>0.2867589952551809</v>
       </c>
       <c r="N14" t="n">
-        <v>1.022792555830816</v>
+        <v>1.00797649312981</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5053748812250622</v>
+        <v>0.2989669193561477</v>
       </c>
       <c r="P14" t="n">
-        <v>124.8965823620565</v>
+        <v>126.9964526151465</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.2480076790168</v>
+        <v>201.3478779321067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_13</t>
+          <t>model_4_7_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9640330199021262</v>
+        <v>0.9895254416532441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5740549652799473</v>
+        <v>0.8159506046236774</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6148395225258045</v>
+        <v>0.9742655501195036</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6101223189564784</v>
+        <v>0.8205247271010802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6234979763283479</v>
+        <v>0.932833442294031</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2405113615271973</v>
+        <v>0.07004341989566315</v>
       </c>
       <c r="H15" t="n">
-        <v>2.848296408469536</v>
+        <v>1.23073915435101</v>
       </c>
       <c r="I15" t="n">
-        <v>0.542096276512903</v>
+        <v>0.07522814592276136</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8984837931242591</v>
+        <v>0.3353992582724275</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7202900191581352</v>
+        <v>0.2053137498107906</v>
       </c>
       <c r="L15" t="n">
-        <v>1.755548971311553</v>
+        <v>0.3219639736528929</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4904195770227747</v>
+        <v>0.2646571742758226</v>
       </c>
       <c r="N15" t="n">
-        <v>1.023329933036459</v>
+        <v>1.006794308116815</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5112977537251115</v>
+        <v>0.2759241781006214</v>
       </c>
       <c r="P15" t="n">
-        <v>124.8499758985497</v>
+        <v>127.3172798900115</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.2014012155099</v>
+        <v>201.6687052069718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_14</t>
+          <t>model_4_7_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9632354981725548</v>
+        <v>0.9891356260350874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5711071327583659</v>
+        <v>0.8154818827890005</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5973080553548654</v>
+        <v>0.9728227173354608</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6012125653871837</v>
+        <v>0.8113000311681146</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6116827775886611</v>
+        <v>0.9293237813790812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2458443930050913</v>
+        <v>0.07265011872921251</v>
       </c>
       <c r="H16" t="n">
-        <v>2.868008578114872</v>
+        <v>1.23387349941776</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5667710384134436</v>
+        <v>0.07944590211044553</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9190165642265081</v>
+        <v>0.3526381576691587</v>
       </c>
       <c r="K16" t="n">
-        <v>0.742893801319976</v>
+        <v>0.2160420298898021</v>
       </c>
       <c r="L16" t="n">
-        <v>1.777016784134708</v>
+        <v>0.3149556433738813</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4958269788999901</v>
+        <v>0.2695368596856699</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023847244428613</v>
+        <v>1.007047161490754</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5169353598951051</v>
+        <v>0.2810116018207072</v>
       </c>
       <c r="P16" t="n">
-        <v>124.8061129839059</v>
+        <v>127.2442005094082</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.1575383008661</v>
+        <v>201.5956258263685</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_15</t>
+          <t>model_4_7_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9624756302528121</v>
+        <v>0.988758744964946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5684213734266088</v>
+        <v>0.8150340782504485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.581142080938286</v>
+        <v>0.9714546474697158</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5931283890562276</v>
+        <v>0.8027739986424391</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6008671204028462</v>
+        <v>0.9260634299050797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2509256332832806</v>
+        <v>0.07517032418062654</v>
       </c>
       <c r="H17" t="n">
-        <v>2.885968263133115</v>
+        <v>1.236867970429008</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5895239298702719</v>
+        <v>0.08344510784325571</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9376467699738127</v>
+        <v>0.3685714109743572</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7635853499220424</v>
+        <v>0.226008224521344</v>
       </c>
       <c r="L17" t="n">
-        <v>1.795972585865742</v>
+        <v>0.308616943693407</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5009247780688041</v>
+        <v>0.2741720703876063</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024340131727906</v>
+        <v>1.007291624887603</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5222501829284345</v>
+        <v>0.2858441430384339</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7651973309808</v>
+        <v>127.175997502338</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.116622647941</v>
+        <v>201.5274228192983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_16</t>
+          <t>model_4_7_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9617577879507266</v>
+        <v>0.988398497005932</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5659781307915758</v>
+        <v>0.8146101044152675</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5662766305294727</v>
+        <v>0.9701670940486712</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5858036833891536</v>
+        <v>0.7949197892055955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5909872822770255</v>
+        <v>0.9230469158668583</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2557258480626861</v>
+        <v>0.0775793039413422</v>
       </c>
       <c r="H18" t="n">
-        <v>2.902306237883679</v>
+        <v>1.239703085417083</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6104463915105496</v>
+        <v>0.08720894414406975</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9545267547773975</v>
+        <v>0.3832491767572641</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7824865731439735</v>
+        <v>0.2352290604506669</v>
       </c>
       <c r="L18" t="n">
-        <v>1.812732818247169</v>
+        <v>0.3028860277335199</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5056934328846737</v>
+        <v>0.2785306158061304</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024805759167096</v>
+        <v>1.007525299239395</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5272218492522921</v>
+        <v>0.2903882407588574</v>
       </c>
       <c r="P18" t="n">
-        <v>124.7272986286745</v>
+        <v>127.1129091783021</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.0787239456347</v>
+        <v>201.4643344952623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_17</t>
+          <t>model_4_7_0</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9610840021492982</v>
+        <v>0.9853540772046832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5637586249521285</v>
+        <v>0.8142726412407338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5526376444725184</v>
+        <v>0.9767859450819155</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5791710847627909</v>
+        <v>0.9893094911040283</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5819754477408084</v>
+        <v>0.9856321949021322</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2602314568193361</v>
+        <v>0.0979373531705572</v>
       </c>
       <c r="H19" t="n">
-        <v>2.917148083651948</v>
+        <v>1.241959703219065</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6296426590127927</v>
+        <v>0.06786040964334625</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9698117599516736</v>
+        <v>0.01997817691734653</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7997272094822331</v>
+        <v>0.04391929617872443</v>
       </c>
       <c r="L19" t="n">
-        <v>1.827572739163108</v>
+        <v>0.5736375049079656</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5101288629545834</v>
+        <v>0.3129494418760915</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025242809416671</v>
+        <v>1.009500058029395</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5318461047628837</v>
+        <v>0.326272347511409</v>
       </c>
       <c r="P19" t="n">
-        <v>124.6923676508804</v>
+        <v>126.6468545161655</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.0437929678407</v>
+        <v>200.9982798331258</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9604553165133745</v>
+        <v>0.9880572754192546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.561744556646271</v>
+        <v>0.8142115553740975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5401512304736661</v>
+        <v>0.9689629482689519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5731724729197423</v>
+        <v>0.7877053513786966</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5737694301526235</v>
+        <v>0.9202658611180002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2644354805615897</v>
+        <v>0.07986105426263507</v>
       </c>
       <c r="H20" t="n">
-        <v>2.930616167687149</v>
+        <v>1.242368184690536</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6472167325007193</v>
+        <v>0.09072895933186874</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9836357252214907</v>
+        <v>0.3967313520837629</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8154262288611051</v>
+        <v>0.2437301478730228</v>
       </c>
       <c r="L20" t="n">
-        <v>1.840728801889832</v>
+        <v>0.2977009428756568</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5142329049774914</v>
+        <v>0.2825969820479954</v>
       </c>
       <c r="N20" t="n">
-        <v>1.025650605504838</v>
+        <v>1.007746632160484</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5361248643512451</v>
+        <v>0.2946277206301773</v>
       </c>
       <c r="P20" t="n">
-        <v>124.6603159745267</v>
+        <v>127.0549339520977</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.011741291487</v>
+        <v>201.4063592690579</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9598712760564048</v>
+        <v>0.9877363071747697</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5599188567348394</v>
+        <v>0.8138390633539239</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5287409178489124</v>
+        <v>0.9678422022849927</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5677481123512309</v>
+        <v>0.7810925271778322</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5663051378807451</v>
+        <v>0.9177085787927552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683409617866046</v>
+        <v>0.08200737039142844</v>
       </c>
       <c r="H21" t="n">
-        <v>2.942824631401467</v>
+        <v>1.244859040544605</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6632762410678764</v>
+        <v>0.09400517634117553</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9961363127027363</v>
+        <v>0.4090892457157454</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8297062456617638</v>
+        <v>0.2515472110284604</v>
       </c>
       <c r="L21" t="n">
-        <v>1.852415358766048</v>
+        <v>0.293017625719503</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5180163721221605</v>
+        <v>0.2863692902380219</v>
       </c>
       <c r="N21" t="n">
-        <v>1.026029442558008</v>
+        <v>1.007954827778528</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5400694015251194</v>
+        <v>0.2985606237896076</v>
       </c>
       <c r="P21" t="n">
-        <v>124.6309937232348</v>
+        <v>127.0018923058696</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.982419040195</v>
+        <v>201.3533176228298</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9593310807952029</v>
+        <v>0.9874362831298018</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5582651316271576</v>
+        <v>0.8134927252964043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5183316650888277</v>
+        <v>0.9668035760667762</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5628491988838239</v>
+        <v>0.7750456595839352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5595255145922531</v>
+        <v>0.9153635650001034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2719532499856323</v>
+        <v>0.08401363256161223</v>
       </c>
       <c r="H22" t="n">
-        <v>2.953883098811239</v>
+        <v>1.247175004729979</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6779268023080328</v>
+        <v>0.09704133701552534</v>
       </c>
       <c r="J22" t="n">
-        <v>1.007425992949634</v>
+        <v>0.4203894926695798</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8426764149605389</v>
+        <v>0.2587154148425526</v>
       </c>
       <c r="L22" t="n">
-        <v>1.862797877037133</v>
+        <v>0.2887807522046881</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5214913709598964</v>
+        <v>0.2898510523727872</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026379839484193</v>
+        <v>1.008149437969858</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5436923382576171</v>
+        <v>0.3021906117466911</v>
       </c>
       <c r="P22" t="n">
-        <v>124.6042502050223</v>
+        <v>126.9535524018133</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9556755219826</v>
+        <v>201.3049777187736</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9588330164915525</v>
+        <v>0.9871572283775697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.556768607565993</v>
+        <v>0.8131720367575175</v>
       </c>
       <c r="D23" t="n">
-        <v>0.508850458479386</v>
+        <v>0.9658448377836439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5584244317270539</v>
+        <v>0.7695257544505518</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5533728803221898</v>
+        <v>0.9132178304039863</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2752838082775176</v>
+        <v>0.08587967297471731</v>
       </c>
       <c r="H23" t="n">
-        <v>2.963890362099106</v>
+        <v>1.24931945046615</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6912711797829314</v>
+        <v>0.09984396554654673</v>
       </c>
       <c r="J23" t="n">
-        <v>1.017622990038735</v>
+        <v>0.4307049643084704</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8544470849108332</v>
+        <v>0.2652744649275086</v>
       </c>
       <c r="L23" t="n">
-        <v>1.87203897899187</v>
+        <v>0.284955971982973</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5246749548792258</v>
+        <v>0.2930523382857017</v>
       </c>
       <c r="N23" t="n">
-        <v>1.026702908221696</v>
+        <v>1.008330446457793</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5470114539353195</v>
+        <v>0.3055281830284937</v>
       </c>
       <c r="P23" t="n">
-        <v>124.5799053667849</v>
+        <v>126.9096162278235</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.9313306837451</v>
+        <v>201.2610415447838</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9583750672873237</v>
+        <v>0.9868987550263024</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5554149260007759</v>
+        <v>0.8128761020617634</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5002237312758722</v>
+        <v>0.9649621592802742</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5544298471282156</v>
+        <v>0.7644951912944724</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5477936511231905</v>
+        <v>0.911258022610797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2783461167148582</v>
+        <v>0.08760808546480163</v>
       </c>
       <c r="H24" t="n">
-        <v>2.972942436958844</v>
+        <v>1.251298367139312</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7034129154204638</v>
+        <v>0.1024242525766848</v>
       </c>
       <c r="J24" t="n">
-        <v>1.026828619642137</v>
+        <v>0.4401059649253736</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8651207675313006</v>
+        <v>0.2712651766845346</v>
       </c>
       <c r="L24" t="n">
-        <v>1.880271229907041</v>
+        <v>0.2814993176918207</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5275851748437007</v>
+        <v>0.2959866305507761</v>
       </c>
       <c r="N24" t="n">
-        <v>1.026999956354169</v>
+        <v>1.008498104847804</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5500455679886679</v>
+        <v>0.3085873941901147</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5577798310744</v>
+        <v>126.8697639709453</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.9092051480347</v>
+        <v>201.2211892879056</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.957955192471043</v>
+        <v>0.9866601825523573</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5541912344353594</v>
+        <v>0.8126038387505573</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4923856801242711</v>
+        <v>0.9641518054682763</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5508258664541019</v>
+        <v>0.7599165850084544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5427397924804047</v>
+        <v>0.9094710122342368</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2811538215446727</v>
+        <v>0.08920342069659826</v>
       </c>
       <c r="H25" t="n">
-        <v>2.981125268091366</v>
+        <v>1.253118993155004</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7144446245206928</v>
+        <v>0.104793116690786</v>
       </c>
       <c r="J25" t="n">
-        <v>1.035134091803963</v>
+        <v>0.4486623589480578</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8747893581623281</v>
+        <v>0.2767276838293627</v>
       </c>
       <c r="L25" t="n">
-        <v>1.887610272668508</v>
+        <v>0.2783809135644889</v>
       </c>
       <c r="M25" t="n">
-        <v>0.530239400219064</v>
+        <v>0.298669417076135</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027272307586351</v>
+        <v>1.008652854560633</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5528127892332645</v>
+        <v>0.3113843924919918</v>
       </c>
       <c r="P25" t="n">
-        <v>124.537706703578</v>
+        <v>126.8336717830298</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.8891320205383</v>
+        <v>201.18509709999</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9575709428459859</v>
+        <v>0.9864406679121037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5530856312029619</v>
+        <v>0.8123540376957936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.485269563652597</v>
+        <v>0.9634098198684972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5475744791320563</v>
+        <v>0.7557542866413948</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5381638602150532</v>
+        <v>0.907843890738691</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2837233005567366</v>
+        <v>0.09067131610674602</v>
       </c>
       <c r="H26" t="n">
-        <v>2.988518441997242</v>
+        <v>1.254789413958437</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7244602426023407</v>
+        <v>0.1069621236535141</v>
       </c>
       <c r="J26" t="n">
-        <v>1.042627002929855</v>
+        <v>0.4564407663156654</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8835436227660975</v>
+        <v>0.2817014449845897</v>
       </c>
       <c r="L26" t="n">
-        <v>1.894165190872192</v>
+        <v>0.2755657773040622</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5326568318877892</v>
+        <v>0.3011167815096761</v>
       </c>
       <c r="N26" t="n">
-        <v>1.027521550586387</v>
+        <v>1.008795242435392</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5553331359729008</v>
+        <v>0.3139359462962116</v>
       </c>
       <c r="P26" t="n">
-        <v>124.5195116191359</v>
+        <v>126.8010284441599</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.8709369360962</v>
+        <v>201.1524537611201</v>
       </c>
     </row>
   </sheetData>
